--- a/Project Documentation/Code Review Pt II.xlsx
+++ b/Project Documentation/Code Review Pt II.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,41 +129,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -165,54 +174,55 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -402,23 +412,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="34.29"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -448,7 +463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="61">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -459,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="75">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -474,7 +489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="61">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -487,7 +502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="120">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -498,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -509,7 +524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="90">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -520,7 +535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="37">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -531,7 +546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="60">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -542,7 +557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -553,7 +568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -564,7 +579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -575,7 +590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -587,6 +602,11 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Project Documentation/Code Review Pt II.xlsx
+++ b/Project Documentation/Code Review Pt II.xlsx
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,6 +210,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,10 +425,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -433,7 +436,7 @@
     <col min="5" max="5" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -462,8 +465,9 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="61">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="61">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -474,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -489,7 +493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61">
+    <row r="5" spans="1:6" ht="61">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -502,7 +506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="120">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -513,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60">
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -524,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90">
+    <row r="8" spans="1:6" ht="90">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -535,7 +539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37">
+    <row r="9" spans="1:6" ht="37">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -546,7 +550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -557,7 +561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -568,7 +572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -579,7 +583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -590,7 +594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
